--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-J.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-J.RS0001.a205.xlsx
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'I': 400.0 ton, 1.97 COP liquid-cooled, centrifugal compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'J': 450.0 ton, 1.97 COP liquid-cooled, centrifugal compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>44e27932-97a8-47df-b59b-55ce265d741a</t>
+          <t>9758c91b-2950-4500-9623-b630efa97f03</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>Based on ASHRAE 90.1-2019 Addendum 'bd' curve set 'I' for Energy Cost Budget (ECB) Path A</t>
+          <t>Based on ASHRAE 90.1-2019 Addendum 'bd' curve set 'J' for Energy Cost Budget (ECB) Path A</t>
         </is>
       </c>
       <c r="D13" s="4" t="n"/>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>733082.0535738644</v>
+        <v>875073.8889655578</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,19 +2150,19 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>228590.3760615254</v>
+        <v>219230.7620246768</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>383053.2683962469</v>
+        <v>401365.9470278522</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>611643.6444577723</v>
+        <v>620596.709052529</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.5492473488835</v>
+        <v>278.4456127716424</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.4083836050259</v>
+        <v>287.2631364547099</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>15000</v>
@@ -2179,13 +2179,13 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,19 +2194,19 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>323679.2380416423</v>
+        <v>305707.2829772948</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>766106.5367924938</v>
+        <v>802731.8940557044</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1089785.774834136</v>
+        <v>1108439.177032999</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>280.0596058088781</v>
+        <v>279.852336654396</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.5658223046721</v>
+        <v>288.3128433949678</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>15000</v>
@@ -2223,13 +2223,13 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,19 +2238,19 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>470800.5350479605</v>
+        <v>443571.437164594</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1149159.805188741</v>
+        <v>1204097.841083556</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1619960.340236701</v>
+        <v>1647669.27824815</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.5699642688728</v>
+        <v>281.2590605371495</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.8492159246445</v>
+        <v>289.4731228228429</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>15000</v>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,19 +2282,19 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>669954.2670804801</v>
+        <v>632823.2245865747</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1532213.073584988</v>
+        <v>1605463.788111409</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2202167.340665468</v>
+        <v>2238287.012697984</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>283.0803227288674</v>
+        <v>282.665784419903</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>291.2585644649431</v>
+        <v>290.7439747383351</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>15000</v>
@@ -2311,13 +2311,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,19 +2326,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>237760.8776715526</v>
+        <v>251956.3407266201</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>345658.4487096261</v>
+        <v>374998.9008808151</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>583419.3263811787</v>
+        <v>626955.2416074352</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.4018015836767</v>
+        <v>278.3532004636044</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.4191878650992</v>
+        <v>296.3557189247264</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>15000</v>
@@ -2355,13 +2355,13 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,19 +2370,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>336664.4783861191</v>
+        <v>351341.6075421321</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>691316.8974192522</v>
+        <v>749997.8017616302</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1027981.375805371</v>
+        <v>1101339.409303762</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7647142784645</v>
+        <v>279.66751203832</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.4991894596303</v>
+        <v>297.3801191720078</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>15000</v>
@@ -2399,13 +2399,13 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,19 +2414,19 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>489687.9315300281</v>
+        <v>509785.3746741032</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1036975.346128878</v>
+        <v>1124996.702642445</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1526663.277658906</v>
+        <v>1634782.077316549</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.1276269732523</v>
+        <v>280.9818236130355</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.7106676995367</v>
+        <v>298.5320522217056</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>15000</v>
@@ -2443,13 +2443,13 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,19 +2458,19 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>696831.2371032798</v>
+        <v>727287.6421225335</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1382633.794838504</v>
+        <v>1499995.60352326</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2079465.031941784</v>
+        <v>2227283.245645794</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.4905396680401</v>
+        <v>282.296135187751</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>300.0536225848184</v>
+        <v>299.8115180738196</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>15000</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B13" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,19 +2502,19 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>233857.4027764505</v>
+        <v>253713.672110765</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>319962.4006305041</v>
+        <v>341790.679505383</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>553819.8034069546</v>
+        <v>595504.351616148</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.3004834464703</v>
+        <v>278.23681092319</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.4256912309259</v>
+        <v>305.366022424371</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>15000</v>
@@ -2531,13 +2531,13 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,19 +2546,19 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>331137.2387816781</v>
+        <v>353792.1258807821</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>639924.8012610083</v>
+        <v>683581.359010766</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>971062.0400426863</v>
+        <v>1037373.484891548</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.5620780040517</v>
+        <v>279.434732957491</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.442590755513</v>
+        <v>306.3232846510239</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>15000</v>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,19 +2590,19 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>481648.4064160499</v>
+        <v>513340.9979837183</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>959887.2018915124</v>
+        <v>1025372.038516149</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1441535.608307562</v>
+        <v>1538713.036499867</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.8236725616331</v>
+        <v>280.6326549917921</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.5892252663357</v>
+        <v>307.4093831796184</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>15000</v>
@@ -2619,13 +2619,13 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,19 +2634,19 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>685390.9056795662</v>
+        <v>732360.2884195738</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1279849.602522017</v>
+        <v>1367162.718021532</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1965240.508201583</v>
+        <v>2099523.006441106</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>282.0852671192145</v>
+        <v>281.8305770260932</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.865594763394</v>
+        <v>308.6243180101545</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>15000</v>
@@ -2663,13 +2663,13 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,19 +2678,19 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>222094.571570957</v>
+        <v>228561.9434142272</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>305965.124158881</v>
+        <v>301741.2829015559</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>528059.695729838</v>
+        <v>530303.2263157831</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.2452929372643</v>
+        <v>278.096444150399</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.4411418874382</v>
+        <v>314.3025577532267</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>15000</v>
@@ -2707,13 +2707,13 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,19 +2722,19 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>314481.3134211904</v>
+        <v>318719.1891679354</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>611930.2483177619</v>
+        <v>603482.5658031118</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>926411.5617389523</v>
+        <v>922201.7549710472</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.4516969856397</v>
+        <v>279.1539994119092</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.4151393053488</v>
+        <v>315.1543075923098</v>
       </c>
       <c r="K18" s="5" t="n">
         <v>15000</v>
@@ -2751,13 +2751,13 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,19 +2766,19 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>457421.8955688277</v>
+        <v>462451.2946315881</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>917895.372476643</v>
+        <v>905223.8487046676</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>1375317.268045471</v>
+        <v>1367675.143336256</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.6581010340152</v>
+        <v>280.2115546734193</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.5127443026802</v>
+        <v>316.1224967002349</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>15000</v>
@@ -2795,13 +2795,13 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,19 +2810,19 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>650916.3180138686</v>
+        <v>659758.2598051854</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1223860.496635524</v>
+        <v>1206965.131606224</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1874776.814649392</v>
+        <v>1866723.391411409</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.8645050823906</v>
+        <v>281.2691099349295</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.7339568794324</v>
+        <v>317.2071250770019</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>15000</v>
@@ -2839,13 +2839,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,19 +2854,19 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>224176.1240019859</v>
+        <v>226888.3859005314</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>409966.4878359179</v>
+        <v>452239.8437119264</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>634142.6118379037</v>
+        <v>679128.2296124578</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.5477813665937</v>
+        <v>282.516265707741</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.4628468574637</v>
+        <v>287.3890806834072</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>15000</v>
@@ -2883,13 +2883,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,19 +2898,19 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>317428.7485513458</v>
+        <v>316385.4896647582</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>819932.9756718357</v>
+        <v>904479.6874238529</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1137361.724223182</v>
+        <v>1220865.177088611</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>284.1677849554095</v>
+        <v>284.1047536377042</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.6809894098004</v>
+        <v>288.5547541761517</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>15000</v>
@@ -2927,13 +2927,13 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B23" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,19 +2942,19 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>461709.0226786541</v>
+        <v>459065.1716957747</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1229899.463507754</v>
+        <v>1356719.531135779</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1691608.486186408</v>
+        <v>1815784.702831554</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.7877885442254</v>
+        <v>285.6932415676673</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>290.0226545982348</v>
+        <v>289.8348623997193</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>15000</v>
@@ -2971,13 +2971,13 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,19 +2986,19 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>657016.9463839111</v>
+        <v>654927.431993581</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1639865.951343671</v>
+        <v>1808959.374847706</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2296882.897727583</v>
+        <v>2463886.806841287</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>287.4077921330413</v>
+        <v>287.2817294976305</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>291.487842422767</v>
+        <v>291.2294053541102</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>15000</v>
@@ -3015,13 +3015,13 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B25" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,19 +3030,19 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>242170.6357052323</v>
+        <v>272328.3583924791</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>378516.1995495714</v>
+        <v>432434.7411513092</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>620686.8352548038</v>
+        <v>704763.0995437882</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4235039404994</v>
+        <v>282.4467004829899</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.5097240884674</v>
+        <v>296.523739685827</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>15000</v>
@@ -3059,13 +3059,13 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,19 +3074,19 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>342908.6044288765</v>
+        <v>379749.4555643645</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>757032.3990991428</v>
+        <v>864869.4823026183</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>1099941.003528019</v>
+        <v>1244618.937866983</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.9192301032209</v>
+        <v>283.965623188202</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.6740053549208</v>
+        <v>297.6895215392986</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>15000</v>
@@ -3103,13 +3103,13 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,19 +3118,19 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>498770.1880863132</v>
+        <v>551004.2486611875</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>1135548.598648714</v>
+        <v>1297304.223453928</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>1634318.786735027</v>
+        <v>1848308.472115115</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.4149562659425</v>
+        <v>285.484545893414</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.9722017679819</v>
+        <v>298.9931479043354</v>
       </c>
       <c r="K27" s="5" t="n">
         <v>15000</v>
@@ -3147,13 +3147,13 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B28" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,19 +3162,19 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>709755.3866775425</v>
+        <v>786092.7376829479</v>
       </c>
       <c r="G28" s="5" t="n">
-        <v>1514064.798198286</v>
+        <v>1729738.964605237</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2223820.184875828</v>
+        <v>2515831.702288184</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.910682428664</v>
+        <v>287.0034685986261</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.4043133276505</v>
+        <v>300.4346187809376</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>15000</v>
@@ -3191,13 +3191,13 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B29" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,19 +3206,19 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>245651.0634574154</v>
+        <v>285090.9208718101</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>358764.6828707238</v>
+        <v>405788.4633622969</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>604415.7463281392</v>
+        <v>690879.3842341069</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3454548100126</v>
+        <v>282.3531056986408</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.5490032683588</v>
+        <v>305.5726422337571</v>
       </c>
       <c r="K29" s="5" t="n">
         <v>15000</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B30" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,19 +3250,19 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>347836.818040907</v>
+        <v>397546.2659360086</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>717529.3657414475</v>
+        <v>811576.9267245937</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1065366.183782354</v>
+        <v>1209123.192660602</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7631318422474</v>
+        <v>283.7784336195037</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.6724280790513</v>
+        <v>306.6953620271178</v>
       </c>
       <c r="K30" s="5" t="n">
         <v>15000</v>
@@ -3279,13 +3279,13 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B31" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,19 +3294,19 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>505938.4130840381</v>
+        <v>576826.8482296846</v>
       </c>
       <c r="G31" s="5" t="n">
-        <v>1076294.048612171</v>
+        <v>1217365.390086891</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>1582232.461696209</v>
+        <v>1794192.238316575</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1808088744822</v>
+        <v>285.2037615403667</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.9321305399616</v>
+        <v>307.9628515510834</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>15000</v>
@@ -3323,13 +3323,13 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,19 +3338,19 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>719955.8485868085</v>
+        <v>822932.667752838</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>1435058.731482895</v>
+        <v>1623153.853449187</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>2155014.580069704</v>
+        <v>2446086.521202025</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5984859067171</v>
+        <v>286.6290894612297</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3281106510896</v>
+        <v>309.3751108056538</v>
       </c>
       <c r="K32" s="5" t="n">
         <v>15000</v>
@@ -3367,13 +3367,13 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B33" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,19 +3382,19 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>239041.2268634459</v>
+        <v>268098.6696354342</v>
       </c>
       <c r="G33" s="5" t="n">
-        <v>350711.937799375</v>
+        <v>372301.0103448895</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>589753.164662821</v>
+        <v>640399.6799803236</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.3136339751335</v>
+        <v>282.2354813546937</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.5919866168597</v>
+        <v>314.5418407048983</v>
       </c>
       <c r="K33" s="5" t="n">
         <v>15000</v>
@@ -3411,13 +3411,13 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B34" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,19 +3426,19 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>338477.4263238211</v>
+        <v>373851.347808801</v>
       </c>
       <c r="G34" s="5" t="n">
-        <v>701423.8755987501</v>
+        <v>744602.020689779</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1039901.301922571</v>
+        <v>1118453.36849858</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.6994901724892</v>
+        <v>283.5431849316095</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.6926294424119</v>
+        <v>315.580839635733</v>
       </c>
       <c r="K34" s="5" t="n">
         <v>15000</v>
@@ -3455,13 +3455,13 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,19 +3470,19 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>492324.9151816468</v>
+        <v>542446.2839695801</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1052135.813398125</v>
+        <v>1116903.031034668</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1544460.728579772</v>
+        <v>1659349.315004249</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>285.0853463698449</v>
+        <v>284.8508885085254</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.9263115729114</v>
+        <v>316.7564195415259</v>
       </c>
       <c r="K35" s="5" t="n">
         <v>15000</v>
@@ -3499,13 +3499,13 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,19 +3514,19 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>700583.6934369231</v>
+        <v>773883.4781177711</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1402847.7511975</v>
+        <v>1489204.041379558</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2103431.444634423</v>
+        <v>2263087.519497329</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.4712025672006</v>
+        <v>286.1585920854412</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.2930330083582</v>
+        <v>318.068580422277</v>
       </c>
       <c r="K36" s="5" t="n">
         <v>15000</v>
@@ -3543,13 +3543,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B37" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,19 +3558,19 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>214798.3164958407</v>
+        <v>225882.9914529861</v>
       </c>
       <c r="G37" s="5" t="n">
-        <v>424667.9767998682</v>
+        <v>472669.5133737778</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>639466.2932957088</v>
+        <v>698552.5048267639</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.4979009217087</v>
+        <v>286.4800172173436</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.4757338936657</v>
+        <v>287.4308765454738</v>
       </c>
       <c r="K37" s="5" t="n">
         <v>15000</v>
@@ -3587,13 +3587,13 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B38" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,19 +3602,19 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>304149.9673515927</v>
+        <v>314983.5130350143</v>
       </c>
       <c r="G38" s="5" t="n">
-        <v>849335.9535997363</v>
+        <v>945339.0267475556</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>1153485.920951329</v>
+        <v>1260322.53978257</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>288.1791351767508</v>
+        <v>288.1433677680206</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.7200212543257</v>
+        <v>288.6396559019805</v>
       </c>
       <c r="K38" s="5" t="n">
         <v>15000</v>
@@ -3631,13 +3631,13 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B39" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,19 +3646,19 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>442394.6627850354</v>
+        <v>457030.9486884908</v>
       </c>
       <c r="G39" s="5" t="n">
-        <v>1274003.930399605</v>
+        <v>1418008.540121333</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>1716398.59318464</v>
+        <v>1875039.488809824</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.8603694317928</v>
+        <v>289.8067183186976</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>290.08266401256</v>
+        <v>289.9623629027862</v>
       </c>
       <c r="K39" s="5" t="n">
         <v>15000</v>
@@ -3675,13 +3675,13 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B40" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,19 +3690,19 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>629532.4027961689</v>
+        <v>652025.2984134157</v>
       </c>
       <c r="G40" s="5" t="n">
-        <v>1698671.907199473</v>
+        <v>1890678.053495111</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2328204.309995641</v>
+        <v>2542703.351908527</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.5416036868349</v>
+        <v>291.4700688693745</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.5636621683688</v>
+        <v>291.3989975478909</v>
       </c>
       <c r="K40" s="5" t="n">
         <v>15000</v>
@@ -3719,13 +3719,13 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B41" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,19 +3734,19 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>239760.679091398</v>
+        <v>279481.6249482062</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>399162.2199137961</v>
+        <v>459426.3543995802</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>638922.8990051941</v>
+        <v>738907.9793477864</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.3969252076914</v>
+        <v>286.433413797514</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.5540260660067</v>
+        <v>296.5974732243734</v>
       </c>
       <c r="K41" s="5" t="n">
         <v>15000</v>
@@ -3763,13 +3763,13 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B42" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,19 +3778,19 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>339496.1557776289</v>
+        <v>389724.3590084239</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>798324.4398275921</v>
+        <v>918852.7087991604</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1137820.595605221</v>
+        <v>1308577.067807584</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>287.9771837487162</v>
+        <v>288.0501609283613</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.7660285492006</v>
+        <v>297.8276347576317</v>
       </c>
       <c r="K42" s="5" t="n">
         <v>15000</v>
@@ -3807,13 +3807,13 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B43" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,19 +3822,19 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>493806.6857605189</v>
+        <v>565477.5128018657</v>
       </c>
       <c r="G43" s="5" t="n">
-        <v>1197486.659741388</v>
+        <v>1378279.063198741</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>1691293.345501907</v>
+        <v>1943756.576000606</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.557442289741</v>
+        <v>289.6669080592087</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.1106135248911</v>
+        <v>299.1992615731319</v>
       </c>
       <c r="K43" s="5" t="n">
         <v>15000</v>
@@ -3851,13 +3851,13 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B44" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,19 +3866,19 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>702692.2690400679</v>
+        <v>806741.0863285318</v>
       </c>
       <c r="G44" s="5" t="n">
-        <v>1596648.879655184</v>
+        <v>1837705.417598321</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>2299341.148695252</v>
+        <v>2644446.503926853</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.1377008307658</v>
+        <v>291.2836551900559</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.587780993078</v>
+        <v>300.7123536708739</v>
       </c>
       <c r="K44" s="5" t="n">
         <v>15000</v>
@@ -3895,13 +3895,13 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B45" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,19 +3910,19 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>249504.8669349066</v>
+        <v>300296.723301516</v>
       </c>
       <c r="G45" s="5" t="n">
-        <v>385355.2346352228</v>
+        <v>439342.0201969875</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>634860.1015701294</v>
+        <v>739638.7434985036</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.3422642069159</v>
+        <v>286.362735898029</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.6232020134848</v>
+        <v>305.6782741715972</v>
       </c>
       <c r="K45" s="5" t="n">
         <v>15000</v>
@@ -3939,13 +3939,13 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B46" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,19 +3954,19 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>353293.7239467832</v>
+        <v>418750.0628089664</v>
       </c>
       <c r="G46" s="5" t="n">
-        <v>770710.4692704455</v>
+        <v>878684.0403939751</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1124004.193217229</v>
+        <v>1297434.103202941</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.8678617471651</v>
+        <v>287.9088051293913</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.8153401782622</v>
+        <v>306.8866781714179</v>
       </c>
       <c r="K46" s="5" t="n">
         <v>15000</v>
@@ -3983,13 +3983,13 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B47" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,19 +3998,19 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>513875.6358596996</v>
+        <v>607592.875655281</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1156065.703905668</v>
+        <v>1318026.060590963</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1669941.339765368</v>
+        <v>1925618.936246244</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.3934592874144</v>
+        <v>289.4548743607536</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.1458939334515</v>
+        <v>308.2475734382385</v>
       </c>
       <c r="K47" s="5" t="n">
         <v>15000</v>
@@ -4027,13 +4027,13 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B48" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,19 +4042,19 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>731250.6026736557</v>
+        <v>866825.1618404598</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1541420.938540891</v>
+        <v>1757368.08078795</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2272671.541214547</v>
+        <v>2624193.24262841</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.9190568276637</v>
+        <v>291.0009435921159</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.6148632790528</v>
+        <v>309.760959972059</v>
       </c>
       <c r="K48" s="5" t="n">
         <v>15000</v>
@@ -4071,13 +4071,13 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B49" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,19 +4086,19 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>247663.89904145</v>
+        <v>290114.29186962</v>
       </c>
       <c r="G49" s="5" t="n">
-        <v>383247.0209641483</v>
+        <v>412416.5107659999</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>630910.9200055983</v>
+        <v>702530.8026356199</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.3339179193821</v>
+        <v>286.2679835188886</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.6926201292177</v>
+        <v>314.6768761027225</v>
       </c>
       <c r="K49" s="5" t="n">
         <v>15000</v>
@@ -4115,13 +4115,13 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B50" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,19 +4130,19 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>350686.951538951</v>
+        <v>404551.1273201723</v>
       </c>
       <c r="G50" s="5" t="n">
-        <v>766494.0419282967</v>
+        <v>824833.0215319998</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>1117180.993467248</v>
+        <v>1229384.148852172</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.8511691720976</v>
+        <v>287.7193003711105</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.8815835466704</v>
+        <v>315.821935907872</v>
       </c>
       <c r="K50" s="5" t="n">
         <v>15000</v>
@@ -4159,13 +4159,13 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B51" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,19 +4174,19 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>510084.0122394111</v>
+        <v>586990.6768472154</v>
       </c>
       <c r="G51" s="5" t="n">
-        <v>1149741.062892445</v>
+        <v>1237249.532298</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>1659825.075131856</v>
+        <v>1824240.209145215</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>289.3684204248131</v>
+        <v>289.1706172233324</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.2083852501013</v>
+        <v>317.1147923913367</v>
       </c>
       <c r="K51" s="5" t="n">
         <v>15000</v>
@@ -4203,13 +4203,13 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B52" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,19 +4218,19 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>725855.0811428303</v>
+        <v>837432.9404507496</v>
       </c>
       <c r="G52" s="5" t="n">
-        <v>1532988.083856593</v>
+        <v>1649666.043064</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>2258843.164999424</v>
+        <v>2487098.983514749</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.8856716775285</v>
+        <v>290.6219340755543</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.6730252395107</v>
+        <v>318.5554455531166</v>
       </c>
       <c r="K52" s="5" t="n">
         <v>15000</v>
@@ -4247,13 +4247,13 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B53" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,19 +4262,19 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>202353.3265601643</v>
+        <v>219658.0843191138</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>427157.7352880986</v>
+        <v>462654.9560134072</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>629511.0618482629</v>
+        <v>682313.0403325208</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.3994481200704</v>
+        <v>290.3363614880624</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.4516352639714</v>
+        <v>287.3959335470583</v>
       </c>
       <c r="K53" s="5" t="n">
         <v>15000</v>
@@ -4291,13 +4291,13 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B54" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,19 +4306,19 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>286528.119357732</v>
+        <v>306303.1643964053</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>854315.4705761973</v>
+        <v>925309.9120268143</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1140843.589933929</v>
+        <v>1231613.07642322</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>292.0933406845852</v>
+        <v>291.9671674205694</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.6894179624514</v>
+        <v>288.5778807903053</v>
       </c>
       <c r="K54" s="5" t="n">
         <v>15000</v>
@@ -4335,13 +4335,13 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B55" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,19 +4350,19 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>416763.1903611658</v>
+        <v>444436.0419423421</v>
       </c>
       <c r="G55" s="5" t="n">
-        <v>1281473.205864296</v>
+        <v>1387964.868040222</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>1698236.396225462</v>
+        <v>1832400.909982564</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.7872332491</v>
+        <v>293.5979733530762</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>290.0386987806851</v>
+        <v>289.8706160478988</v>
       </c>
       <c r="K55" s="5" t="n">
         <v>15000</v>
@@ -4379,13 +4379,13 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B56" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,19 +4394,19 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>593058.539570466</v>
+        <v>634056.7169569242</v>
       </c>
       <c r="G56" s="5" t="n">
-        <v>1708630.941152395</v>
+        <v>1850619.824053629</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>2301689.48072286</v>
+        <v>2484676.541010553</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>295.4811258136149</v>
+        <v>295.2287792855831</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.4994777186724</v>
+        <v>291.2741393198388</v>
       </c>
       <c r="K56" s="5" t="n">
         <v>15000</v>
@@ -4423,13 +4423,13 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B57" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,19 +4438,19 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>232517.6482714897</v>
+        <v>277049.5302438196</v>
       </c>
       <c r="G57" s="5" t="n">
-        <v>407596.5098023009</v>
+        <v>455973.7406256294</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>640114.1580737906</v>
+        <v>733023.270869449</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.3218781461102</v>
+        <v>290.3128109661257</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.5569200640329</v>
+        <v>296.5847655978738</v>
       </c>
       <c r="K57" s="5" t="n">
         <v>15000</v>
@@ -4467,13 +4467,13 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B58" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,19 +4482,19 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>329240.1741510487</v>
+        <v>386332.9140435159</v>
       </c>
       <c r="G58" s="5" t="n">
-        <v>815193.0196046018</v>
+        <v>911947.4812512588</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>1144433.19375565</v>
+        <v>1298280.395294775</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.9382007366648</v>
+        <v>291.9200663766958</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.7820929356135</v>
+        <v>297.8053997957874</v>
       </c>
       <c r="K58" s="5" t="n">
         <v>15000</v>
@@ -4511,13 +4511,13 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B59" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,19 +4526,19 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>478889.0726740262</v>
+        <v>560556.6352143317</v>
       </c>
       <c r="G59" s="5" t="n">
-        <v>1222789.529406903</v>
+        <v>1367921.221876888</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>1701678.602080929</v>
+        <v>1928477.85709122</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.5545233272195</v>
+        <v>293.527321787266</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>299.1358430596196</v>
+        <v>299.1662682219732</v>
       </c>
       <c r="K59" s="5" t="n">
         <v>15000</v>
@@ -4555,13 +4555,13 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B60" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,19 +4570,19 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>681464.3438404219</v>
+        <v>799720.6937562672</v>
       </c>
       <c r="G60" s="5" t="n">
-        <v>1630386.039209204</v>
+        <v>1823894.962502518</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>2311850.383049625</v>
+        <v>2623615.656258785</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>295.1708459177741</v>
+        <v>295.1345771978361</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.6181704360513</v>
+        <v>300.6673708764314</v>
       </c>
       <c r="K60" s="5" t="n">
         <v>15000</v>
@@ -4599,13 +4599,13 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B61" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,19 +4614,19 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>247495.7210747294</v>
+        <v>303154.3534628463</v>
       </c>
       <c r="G61" s="5" t="n">
-        <v>399734.055924002</v>
+        <v>442451.3500094566</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>647229.7769987313</v>
+        <v>745605.7034723028</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.2906996116648</v>
+        <v>290.2651460820649</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.6533492899543</v>
+        <v>305.6912009523129</v>
       </c>
       <c r="K61" s="5" t="n">
         <v>15000</v>
@@ -4643,13 +4643,13 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B62" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,19 +4658,19 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>350448.8150213014</v>
+        <v>422734.8975297246</v>
       </c>
       <c r="G62" s="5" t="n">
-        <v>799468.1118480039</v>
+        <v>884902.7000189131</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>1149916.926869305</v>
+        <v>1307637.597548638</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.8758436677741</v>
+        <v>291.8247366085743</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.8784944905965</v>
+        <v>306.9087829508231</v>
       </c>
       <c r="K62" s="5" t="n">
         <v>15000</v>
@@ -4687,13 +4687,13 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B63" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,19 +4702,19 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>509737.6359917338</v>
+        <v>613374.7426972952</v>
       </c>
       <c r="G63" s="5" t="n">
-        <v>1199202.167772006</v>
+        <v>1327354.05002837</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>1708939.80376374</v>
+        <v>1940728.792725665</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.4609877238833</v>
+        <v>293.3843271350836</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.2409406857155</v>
+        <v>308.2803073265522</v>
       </c>
       <c r="K63" s="5" t="n">
         <v>15000</v>
@@ -4731,13 +4731,13 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B64" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,19 +4746,19 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>725362.1839860268</v>
+        <v>875073.8889655578</v>
       </c>
       <c r="G64" s="5" t="n">
-        <v>1598936.223696008</v>
+        <v>1769805.400037826</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>2324298.407682035</v>
+        <v>2644879.289003384</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>295.0461317799926</v>
+        <v>294.9439176615929</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.7406878753114</v>
+        <v>309.8057740795002</v>
       </c>
       <c r="K64" s="5" t="n">
         <v>15000</v>
@@ -4775,13 +4775,13 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B65" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,19 +4790,19 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>250129.7633951401</v>
+        <v>298621.9683926927</v>
       </c>
       <c r="G65" s="5" t="n">
-        <v>403570.3736532019</v>
+        <v>422087.7841648887</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>653700.137048342</v>
+        <v>720709.7525575814</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.3059125167343</v>
+        <v>290.1933668358801</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.7483413155603</v>
+        <v>314.7163861200831</v>
       </c>
       <c r="K65" s="5" t="n">
         <v>15000</v>
@@ -4819,13 +4819,13 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B66" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,19 +4834,19 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>354178.5643918983</v>
+        <v>416414.6935929817</v>
       </c>
       <c r="G66" s="5" t="n">
-        <v>807140.7473064038</v>
+        <v>844175.5683297775</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>1161319.311698302</v>
+        <v>1260590.261922759</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.9062694779129</v>
+        <v>291.6811781162046</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.9895047381001</v>
+        <v>315.8897590810732</v>
       </c>
       <c r="K66" s="5" t="n">
         <v>15000</v>
@@ -4863,13 +4863,13 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B67" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,19 +4878,19 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>515162.6611181397</v>
+        <v>604204.3300198758</v>
       </c>
       <c r="G67" s="5" t="n">
-        <v>1210711.120959606</v>
+        <v>1266263.352494666</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>1725873.782077746</v>
+        <v>1870467.682514542</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>293.5066264390916</v>
+        <v>293.1689893965291</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.3698788328129</v>
+        <v>317.2152628961346</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>15000</v>
@@ -4907,13 +4907,13 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B68" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.0986250403294138</v>
+        <v>0.1109531703705905</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,19 +4922,19 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>733082.0535738644</v>
+        <v>861990.877673375</v>
       </c>
       <c r="G68" s="5" t="n">
-        <v>1614281.494612808</v>
+        <v>1688351.136659555</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>2347363.548186672</v>
+        <v>2550342.01433293</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>295.1069834002703</v>
+        <v>294.6568006768536</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.8894635996986</v>
+        <v>318.6928975652672</v>
       </c>
       <c r="K68" s="5" t="n">
         <v>15000</v>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-J.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-J.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,37 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +486,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +527,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1101,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1120,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'J': 450.0 ton, 1.97 COP liquid-cooled, centrifugal compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'J': 400.0+ ton, 6.28 COP, 7.03 IPLV liquid-cooled, centrifugal compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1139,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>9758c91b-2950-4500-9623-b630efa97f03</t>
+          <t>c4ab8d90-d2f7-4a29-9d33-0cdf4141ced3</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1158,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1176,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1481,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>875073.8889655578</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1520,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1539,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1555,81 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1790,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1953,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2108,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2152,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2209,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2231,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2240,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>219230.7620246768</v>
+        <v>68750.75731282966</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>401365.9470278522</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>620596.709052529</v>
+        <v>470116.7043406818</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4456127716424</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.2631364547099</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2268,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2277,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>305707.2829772948</v>
+        <v>95869.79047388787</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>802731.8940557044</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1108439.177032999</v>
+        <v>898601.6845295923</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.852336654396</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.3128433949678</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2305,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2314,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>443571.437164594</v>
+        <v>139103.9831534839</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>1204097.841083556</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1647669.27824815</v>
+        <v>1343201.82423704</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.2590605371495</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.4731228228429</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2342,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2351,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>632823.2245865747</v>
+        <v>198453.3353516178</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>1605463.788111409</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2238287.012697984</v>
+        <v>1803917.123463026</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.665784419903</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.7439747383351</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2379,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2388,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>251956.3407266201</v>
+        <v>79013.49735204896</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>374998.9008808151</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>626955.2416074352</v>
+        <v>454012.3982328641</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3532004636044</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.3557189247264</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2416,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2425,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>351341.6075421321</v>
+        <v>110180.712647022</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>749997.8017616302</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1101339.409303762</v>
+        <v>860178.5144086522</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.66751203832</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.3801191720078</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2453,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2462,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>509785.3746741032</v>
+        <v>159868.6710394419</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>1124996.702642445</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1634782.077316549</v>
+        <v>1284865.373681887</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>280.9818236130355</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.5320522217056</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2490,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2499,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>727287.6421225335</v>
+        <v>228077.3725293086</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>1499995.60352326</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2227283.245645794</v>
+        <v>1728072.976052569</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.296135187751</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.8115180738196</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2527,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2536,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>253713.672110765</v>
+        <v>79564.59639669841</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>341790.679505383</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>595504.351616148</v>
+        <v>421355.2759020814</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.23681092319</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.366022424371</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2564,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2573,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>353792.1258807821</v>
+        <v>110949.1950900661</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>683581.359010766</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1037373.484891548</v>
+        <v>794530.5541008322</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.434732957491</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.3232846510239</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2601,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2610,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>513340.9979837183</v>
+        <v>160983.7143526958</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>1025372.038516149</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1538713.036499867</v>
+        <v>1186355.752868845</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.6326549917921</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.4093831796184</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2638,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2647,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>732360.2884195738</v>
+        <v>229668.1541845874</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1367162.718021532</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2099523.006441106</v>
+        <v>1596830.872206119</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>281.8305770260932</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.6243180101545</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2675,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2684,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>228561.9434142272</v>
+        <v>71677.01538551183</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>301741.2829015559</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>530303.2263157831</v>
+        <v>373418.2982870677</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.096444150399</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.3025577532267</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2712,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2721,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>318719.1891679354</v>
+        <v>99950.32368203931</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>603482.5658031118</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>922201.7549710472</v>
+        <v>703432.889485151</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.1539994119092</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.1543075923098</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2749,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2758,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>462451.2946315881</v>
+        <v>145024.7056233899</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>905223.8487046676</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>1367675.143336256</v>
+        <v>1050248.554328058</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.2115546734193</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.1224967002349</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2786,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2795,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>659758.2598051854</v>
+        <v>206900.1612095637</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>1206965.131606224</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1866723.391411409</v>
+        <v>1413865.292815787</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.2691099349295</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.2071250770019</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2823,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2832,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>226888.3859005314</v>
+        <v>71152.18782294464</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>452239.8437119264</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>679128.2296124578</v>
+        <v>523392.0315348711</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.516265707741</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.3890806834072</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2860,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2869,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>316385.4896647582</v>
+        <v>99218.47562065297</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>904479.6874238529</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1220865.177088611</v>
+        <v>1003698.163044506</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>284.1047536377042</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.5547541761517</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2897,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2906,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>459065.1716957747</v>
+        <v>143962.8176198929</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>1356719.531135779</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1815784.702831554</v>
+        <v>1500682.348755672</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.6932415676673</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.8348623997193</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2934,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2943,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>654927.431993581</v>
+        <v>205385.2138206644</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>1808959.374847706</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2463886.806841287</v>
+        <v>2014344.58866837</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>287.2817294976305</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>291.2294053541102</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2971,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +2980,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>272328.3583924791</v>
+        <v>85402.16119458263</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>432434.7411513092</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>704763.0995437882</v>
+        <v>517836.9023458918</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4467004829899</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.523739685827</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3008,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3017,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>379749.4555643645</v>
+        <v>119089.4125352995</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>864869.4823026183</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>1244618.937866983</v>
+        <v>983958.8948379179</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.965623188202</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.6895215392986</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3045,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3054,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>551004.2486611875</v>
+        <v>172794.9081059132</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>1297304.223453928</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>1848308.472115115</v>
+        <v>1470099.131559841</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.484545893414</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.9931479043354</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3082,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3091,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>786092.7376829479</v>
+        <v>246518.6479064235</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>1729738.964605237</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2515831.702288184</v>
+        <v>1976257.61251166</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>287.0034685986261</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.4346187809376</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3119,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3128,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>285090.9208718101</v>
+        <v>89404.50022585207</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>405788.4633622969</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>690879.3842341069</v>
+        <v>495192.9635881489</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3531056986408</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.5726422337571</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3156,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3165,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>397546.2659360086</v>
+        <v>124670.4914838169</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>811576.9267245937</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1209123.192660602</v>
+        <v>936247.4182084107</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7784336195037</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.6953620271178</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3193,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3202,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>576826.8482296846</v>
+        <v>180892.8741929913</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>1217365.390086891</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>1794192.238316575</v>
+        <v>1398258.264279882</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.2037615403667</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.9628515510834</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3230,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3239,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>822932.667752838</v>
+        <v>258071.6483533751</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>1623153.853449187</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>2446086.521202025</v>
+        <v>1881225.501802563</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.6290894612297</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3751108056538</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3267,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3276,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>268098.6696354342</v>
+        <v>84075.7309867103</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>372301.0103448895</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>640399.6799803236</v>
+        <v>456376.7413315998</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2354813546937</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.5418407048983</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3304,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3313,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>373851.347808801</v>
+        <v>117239.7662029932</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>744602.020689779</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1118453.36849858</v>
+        <v>861841.7868927722</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.5431849316095</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.580839635733</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3341,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3350,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>542446.2839695801</v>
+        <v>170111.1307556422</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>1116903.031034668</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1659349.315004249</v>
+        <v>1287014.161790311</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.8508885085254</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.7564195415259</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3378,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3387,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>773883.4781177711</v>
+        <v>242689.8246446573</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>1489204.041379558</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2263087.519497329</v>
+        <v>1731893.866024215</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.1585920854412</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.068580422277</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3415,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3424,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>225882.9914529861</v>
+        <v>70836.89616848661</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>472669.5133737778</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>698552.5048267639</v>
+        <v>543506.4095422644</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.4800172173436</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.4308765454738</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3452,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3461,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>314983.5130350143</v>
+        <v>98778.81581132872</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>945339.0267475556</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>1260322.53978257</v>
+        <v>1044117.842558884</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>288.1433677680206</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.6396559019805</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3489,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3498,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>457030.9486884908</v>
+        <v>143324.8853744254</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>1418008.540121333</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>1875039.488809824</v>
+        <v>1561333.425495759</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.8067183186976</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.9623629027862</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3526,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3535,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>652025.2984134157</v>
+        <v>204475.1048577767</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>1890678.053495111</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2542703.351908527</v>
+        <v>2095153.158352888</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.4700688693745</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.3989975478909</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3563,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3572,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>279481.6249482062</v>
+        <v>87645.42527132484</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>459426.3543995802</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>738907.9793477864</v>
+        <v>547071.7796709051</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.433413797514</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.5974732243734</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3600,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3609,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>389724.3590084239</v>
+        <v>122217.5418159168</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>918852.7087991604</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1308577.067807584</v>
+        <v>1041070.250615077</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>288.0501609283613</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.8276347576317</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3637,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3646,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>565477.5128018657</v>
+        <v>177333.723102817</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>1378279.063198741</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>1943756.576000606</v>
+        <v>1555612.786301557</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.6669080592087</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.1992615731319</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3674,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3683,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>806741.0863285318</v>
+        <v>252993.9691320253</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>1837705.417598321</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>2644446.503926853</v>
+        <v>2090699.386730346</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.2836551900559</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.7123536708739</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3711,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3720,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>300296.723301516</v>
+        <v>94173.03919792334</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>439342.0201969875</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>739638.7434985036</v>
+        <v>533515.0593949109</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.362735898029</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.6782741715972</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3748,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3757,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>418750.0628089664</v>
+        <v>131320.0012490531</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>878684.0403939751</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1297434.103202941</v>
+        <v>1010004.041643028</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.9088051293913</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.8866781714179</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3785,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3794,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>607592.875655281</v>
+        <v>190541.0990382753</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>1318026.060590963</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1925618.936246244</v>
+        <v>1508567.159629238</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.4548743607536</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.2475734382385</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3822,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3831,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>866825.1618404598</v>
+        <v>271836.33256559</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>1757368.08078795</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2624193.24262841</v>
+        <v>2029204.41335354</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>291.0009435921159</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.760959972059</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3859,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3868,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>290114.29186962</v>
+        <v>90979.829149463</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>412416.5107659999</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>702530.8026356199</v>
+        <v>503396.3399154629</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.2679835188886</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.6768761027225</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3896,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3905,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>404551.1273201723</v>
+        <v>126867.2157052948</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>824833.0215319998</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>1229384.148852172</v>
+        <v>951700.2372372946</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.7193003711105</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.821935907872</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3933,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3942,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>586990.6768472154</v>
+        <v>184080.2503996863</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>1237249.532298</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>1824240.209145215</v>
+        <v>1421329.782697686</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>289.1706172233324</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.1147923913367</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3970,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +3979,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>837432.9404507496</v>
+        <v>262618.9332326374</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>1649666.043064</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>2487098.983514749</v>
+        <v>1912284.976296637</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.6219340755543</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.5554455531166</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4007,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4016,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>219658.0843191138</v>
+        <v>68884.76556553961</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>462654.9560134072</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>682313.0403325208</v>
+        <v>531539.7215789468</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.3363614880624</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.3959335470583</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4044,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4053,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>306303.1643964053</v>
+        <v>96056.65886066966</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>925309.9120268143</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1231613.07642322</v>
+        <v>1021366.570887484</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.9671674205694</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.5778807903053</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4081,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4090,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>444436.0419423421</v>
+        <v>139375.1231736959</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>1387964.868040222</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>1832400.909982564</v>
+        <v>1527339.991213917</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.5979733530762</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.8706160478988</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4118,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4127,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>634056.7169569242</v>
+        <v>198840.1585046185</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>1850619.824053629</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>2484676.541010553</v>
+        <v>2049459.982558247</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>295.2287792855831</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.2741393198388</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4155,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4164,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>277049.5302438196</v>
+        <v>86882.72047917396</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>455973.7406256294</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>733023.270869449</v>
+        <v>542856.4611048034</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.3128109661257</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.5847655978738</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4192,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4201,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>386332.9140435159</v>
+        <v>121153.9848243302</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>911947.4812512588</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>1298280.395294775</v>
+        <v>1033101.466075589</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.9200663766958</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.8053997957874</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4229,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4238,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>560556.6352143317</v>
+        <v>175790.5361081533</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>1367921.221876888</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>1928477.85709122</v>
+        <v>1543711.757985041</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.527321787266</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>299.1662682219732</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4266,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4275,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>799720.6937562672</v>
+        <v>250792.3743306432</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>1823894.962502518</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>2623615.656258785</v>
+        <v>2074687.336833161</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>295.1345771978361</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.6673708764314</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4303,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4312,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>303154.3534628463</v>
+        <v>95069.19189062492</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>442451.3500094566</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>745605.7034723028</v>
+        <v>537520.5419000814</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.2651460820649</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.6912009523129</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4340,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4349,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>422734.8975297246</v>
+        <v>132569.6452419329</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>884902.7000189131</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>1307637.597548638</v>
+        <v>1017472.345260846</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.8247366085743</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.9087829508231</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4377,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4386,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>613374.7426972952</v>
+        <v>192354.2922879335</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>1327354.05002837</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>1940728.792725665</v>
+        <v>1519708.342316303</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.3843271350836</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.2803073265522</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4414,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4423,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>875073.8889655578</v>
+        <v>274423.1330286268</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>1769805.400037826</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>2644879.289003384</v>
+        <v>2044228.533066453</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.9439176615929</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.8057740795002</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4451,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4460,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>298621.9683926927</v>
+        <v>93647.83613229687</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>422087.7841648887</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>720709.7525575814</v>
+        <v>515735.6202971856</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.1933668358801</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.7163861200831</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4488,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4497,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>416414.6935929817</v>
+        <v>130587.6295658039</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>844175.5683297775</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>1260590.261922759</v>
+        <v>974763.1978955814</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.6811781162046</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.8897590810732</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4525,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4534,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>604204.3300198758</v>
+        <v>189478.4512762931</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>1266263.352494666</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>1870467.682514542</v>
+        <v>1455741.803770959</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>293.1689893965291</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.2152628961346</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4562,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.1109531703705905</v>
+        <v>0.08530580156013388</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4571,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>861990.877673375</v>
+        <v>270320.3012637643</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>1688351.136659555</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>2550342.01433293</v>
+        <v>1958671.437923319</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.6568006768536</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.6928975652672</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4771,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.06780921920249407</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.06780921920249407</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.06780921920249407</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.06780921920249407</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.08530580156013388</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.08530580156013388</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.08530580156013388</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.08530580156013388</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>